--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9802150-312E-473E-821D-CCA327B8C657}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E325AC1C-4064-4E93-9B97-D28BC3E401EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,50 +422,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -688,8 +688,8 @@
   </sheetPr>
   <dimension ref="A2:CE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="AU12" sqref="AU12"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -724,146 +724,146 @@
   <sheetData>
     <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="5"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="32"/>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="3" t="s">
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="3" t="s">
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="3" t="s">
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="3" t="s">
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="3" t="s">
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="3" t="s">
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="3" t="s">
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="3" t="s">
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="3" t="s">
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="3" t="s">
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="31"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="5"/>
+      <c r="BB3" s="32"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2">
@@ -1024,596 +1024,598 @@
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U5" s="9" t="s">
+      <c r="K5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="10" t="s">
+      <c r="V5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AC5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AD5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AE5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AF5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM5" s="12" t="s">
+      <c r="AF5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="14"/>
-      <c r="AP5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AV5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ5" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="BA5" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="BB5" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC5" s="32" t="s">
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC5" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="16" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="R6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V6" s="18" t="s">
+      <c r="V6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="18" t="s">
+      <c r="W6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="X6" s="18" t="s">
+      <c r="X6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Y6" s="18" t="s">
+      <c r="Y6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB6" s="19">
+      <c r="Z6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB6" s="11">
         <v>45055</v>
       </c>
-      <c r="AC6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ6" s="15" t="s">
+      <c r="AC6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AK6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AV6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ6" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="BA6" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="BB6" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC6" s="32" t="s">
+      <c r="AK6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC6" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="10" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="AA7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="10" t="s">
+      <c r="AB7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="10" t="s">
+      <c r="AC7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AD7" s="10" t="s">
+      <c r="AD7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AE7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ7" s="15" t="s">
+      <c r="AE7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AK7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AV7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ7" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="BA7" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="BB7" s="32" t="s">
+      <c r="AK7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BC7" s="32" t="s">
+      <c r="BC7" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="U8" s="18" t="s">
+      <c r="U8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y8" s="15" t="s">
+      <c r="V8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Z8" s="15" t="s">
+      <c r="Z8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AA8" s="10" t="s">
+      <c r="AA8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AB8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ8" s="30" t="s">
+      <c r="AB8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="BA8" s="30"/>
-      <c r="BB8" s="30" t="s">
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="BC8" s="30"/>
+      <c r="BC8" s="16"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="29"/>
-      <c r="BC9" s="29"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="17"/>
     </row>
     <row r="39" spans="1:83" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="27"/>
-      <c r="AI39" s="27"/>
-      <c r="AJ39" s="27"/>
-      <c r="AK39" s="27"/>
-      <c r="AL39" s="27"/>
-      <c r="AM39" s="27"/>
-      <c r="AN39" s="27"/>
-      <c r="AO39" s="27"/>
-      <c r="AP39" s="27"/>
-      <c r="AQ39" s="27"/>
-      <c r="AR39" s="27"/>
-      <c r="AS39" s="27"/>
-      <c r="AT39" s="27"/>
-      <c r="AU39" s="27"/>
-      <c r="AV39" s="27"/>
-      <c r="AW39" s="27"/>
-      <c r="AX39" s="27"/>
-      <c r="AY39" s="27"/>
-      <c r="AZ39" s="27"/>
-      <c r="BA39" s="27"/>
-      <c r="BB39" s="27"/>
-      <c r="BC39" s="27"/>
-      <c r="BD39" s="27"/>
-      <c r="BE39" s="27"/>
-      <c r="BF39" s="27"/>
-      <c r="BG39" s="27"/>
-      <c r="BH39" s="27"/>
-      <c r="BI39" s="27"/>
-      <c r="BJ39" s="27"/>
-      <c r="BK39" s="27"/>
-      <c r="BL39" s="27"/>
-      <c r="BM39" s="27"/>
-      <c r="BN39" s="27"/>
-      <c r="BO39" s="27"/>
-      <c r="BP39" s="27"/>
-      <c r="BQ39" s="27"/>
-      <c r="BR39" s="27"/>
-      <c r="BS39" s="27"/>
-      <c r="BT39" s="27"/>
-      <c r="BU39" s="27"/>
-      <c r="BV39" s="27"/>
-      <c r="BW39" s="27"/>
-      <c r="BX39" s="27"/>
-      <c r="BY39" s="27"/>
-      <c r="BZ39" s="27"/>
-      <c r="CA39" s="27"/>
-      <c r="CB39" s="27"/>
-      <c r="CC39" s="27"/>
-      <c r="CD39" s="27"/>
-      <c r="CE39" s="27"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="12"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="12"/>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="12"/>
+      <c r="AW39" s="12"/>
+      <c r="AX39" s="12"/>
+      <c r="AY39" s="12"/>
+      <c r="AZ39" s="12"/>
+      <c r="BA39" s="12"/>
+      <c r="BB39" s="12"/>
+      <c r="BC39" s="12"/>
+      <c r="BD39" s="12"/>
+      <c r="BE39" s="12"/>
+      <c r="BF39" s="12"/>
+      <c r="BG39" s="12"/>
+      <c r="BH39" s="12"/>
+      <c r="BI39" s="12"/>
+      <c r="BJ39" s="12"/>
+      <c r="BK39" s="12"/>
+      <c r="BL39" s="12"/>
+      <c r="BM39" s="12"/>
+      <c r="BN39" s="12"/>
+      <c r="BO39" s="12"/>
+      <c r="BP39" s="12"/>
+      <c r="BQ39" s="12"/>
+      <c r="BR39" s="12"/>
+      <c r="BS39" s="12"/>
+      <c r="BT39" s="12"/>
+      <c r="BU39" s="12"/>
+      <c r="BV39" s="12"/>
+      <c r="BW39" s="12"/>
+      <c r="BX39" s="12"/>
+      <c r="BY39" s="12"/>
+      <c r="BZ39" s="12"/>
+      <c r="CA39" s="12"/>
+      <c r="CB39" s="12"/>
+      <c r="CC39" s="12"/>
+      <c r="CD39" s="12"/>
+      <c r="CE39" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AS3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
     <mergeCell ref="AZ8:BA9"/>
     <mergeCell ref="BB8:BC9"/>
     <mergeCell ref="J5:J7"/>
@@ -1630,8 +1632,6 @@
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AJ3:AM3"/>
     <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AV3"/>
-    <mergeCell ref="AW3:AZ3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E325AC1C-4064-4E93-9B97-D28BC3E401EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51902BCD-AF8A-479D-A891-2F8263E8F7CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,28 +417,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,16 +461,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -688,8 +688,8 @@
   </sheetPr>
   <dimension ref="A2:CE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="AR9" sqref="AR9"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="AT9" sqref="AT9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -724,143 +724,143 @@
   <sheetData>
     <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AY2" s="31"/>
-      <c r="AZ2" s="31"/>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="32"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="18"/>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="30" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="30" t="s">
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="30" t="s">
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="30" t="s">
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="30" t="s">
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="30" t="s">
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="30" t="s">
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="30" t="s">
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="30" t="s">
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="31"/>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="30" t="s">
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="31"/>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="32"/>
-      <c r="BA3" s="30" t="s">
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="32"/>
+      <c r="BB3" s="18"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -1046,7 +1046,7 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="21" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1131,11 +1131,11 @@
       <c r="AL5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM5" s="21" t="s">
+      <c r="AM5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="23"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="26"/>
       <c r="AP5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="I6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="9" t="s">
         <v>23</v>
       </c>
@@ -1292,9 +1292,9 @@
       <c r="AL6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="26"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="29"/>
       <c r="AP6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1361,7 +1361,7 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="20"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1441,9 +1441,9 @@
       <c r="AL7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="29"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="32"/>
       <c r="AP7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1512,20 +1512,20 @@
       <c r="AB8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AZ8" s="16" t="s">
+      <c r="AZ8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="BA8" s="16"/>
-      <c r="BB8" s="16" t="s">
+      <c r="BA8" s="19"/>
+      <c r="BB8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="BC8" s="16"/>
+      <c r="BC8" s="19"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="17"/>
-      <c r="BC9" s="17"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="20"/>
+      <c r="BC9" s="20"/>
     </row>
     <row r="39" spans="1:83" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
@@ -1614,12 +1614,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AS3:AV3"/>
-    <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="AZ8:BA9"/>
-    <mergeCell ref="BB8:BC9"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AM5:AO7"/>
     <mergeCell ref="C2:BB2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:I3"/>
@@ -1632,6 +1626,12 @@
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AJ3:AM3"/>
     <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="AZ8:BA9"/>
+    <mergeCell ref="BB8:BC9"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AM5:AO7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51902BCD-AF8A-479D-A891-2F8263E8F7CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8D09C1-0EA0-4597-89CA-4501D638733F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="32">
   <si>
     <t>Календарный план занятий 222 потока группа PY</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Дипломный проект</t>
+  </si>
+  <si>
+    <t>html / css / js</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +237,12 @@
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -416,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -466,6 +475,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -689,7 +704,7 @@
   <dimension ref="A2:CE39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="AT9" sqref="AT9"/>
+      <selection activeCell="AU10" sqref="AU10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1512,6 +1527,9 @@
       <c r="AB8" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="AR8" s="33" t="s">
+        <v>31</v>
+      </c>
       <c r="AZ8" s="19" t="s">
         <v>29</v>
       </c>
@@ -1522,10 +1540,14 @@
       <c r="BC8" s="19"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="AR9" s="34"/>
       <c r="AZ9" s="20"/>
       <c r="BA9" s="20"/>
       <c r="BB9" s="20"/>
       <c r="BC9" s="20"/>
+    </row>
+    <row r="10" spans="1:55" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AR10" s="34"/>
     </row>
     <row r="39" spans="1:83" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
@@ -1613,7 +1635,12 @@
       <c r="CE39" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="AZ8:BA9"/>
+    <mergeCell ref="BB8:BC9"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AM5:AO7"/>
+    <mergeCell ref="AR8:AR10"/>
     <mergeCell ref="C2:BB2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:I3"/>
@@ -1628,10 +1655,6 @@
     <mergeCell ref="AN3:AR3"/>
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="AZ8:BA9"/>
-    <mergeCell ref="BB8:BC9"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AM5:AO7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8D09C1-0EA0-4597-89CA-4501D638733F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D35851-EC24-4991-9419-AB177E66A80B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="2628" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Py" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="32">
   <si>
     <t>Календарный план занятий 222 потока группа PY</t>
   </si>
@@ -448,11 +448,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,6 +476,11 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -703,8 +703,8 @@
   </sheetPr>
   <dimension ref="A2:CE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="AU10" sqref="AU10"/>
+    <sheetView tabSelected="1" topLeftCell="AK4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AX7" sqref="AX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -739,143 +739,143 @@
   <sheetData>
     <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="18"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="34"/>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="16" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="16" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="16" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="16" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="16" t="s">
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="16" t="s">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="16" t="s">
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="16" t="s">
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="16" t="s">
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="16" t="s">
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="33"/>
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="16" t="s">
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="16" t="s">
+      <c r="AX3" s="33"/>
+      <c r="AY3" s="33"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="18"/>
+      <c r="BB3" s="34"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -1061,7 +1061,7 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="18" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1146,11 +1146,11 @@
       <c r="AL5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM5" s="24" t="s">
+      <c r="AM5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="26"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="23"/>
       <c r="AP5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="I6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="9" t="s">
         <v>23</v>
       </c>
@@ -1307,9 +1307,9 @@
       <c r="AL6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="29"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="26"/>
       <c r="AP6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1456,9 +1456,9 @@
       <c r="AL7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="32"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="29"/>
       <c r="AP7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1527,27 +1527,36 @@
       <c r="AB8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="33" t="s">
+      <c r="AR8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AZ8" s="19" t="s">
+      <c r="AW8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="BA8" s="19"/>
-      <c r="BB8" s="19" t="s">
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="BC8" s="19"/>
+      <c r="BC8" s="16"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="AR9" s="34"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20"/>
-      <c r="BC9" s="20"/>
+      <c r="AR9" s="31"/>
+      <c r="AW9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="17"/>
     </row>
     <row r="10" spans="1:55" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AR10" s="34"/>
+      <c r="AR10" s="31"/>
+      <c r="AW10" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="39" spans="1:83" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
@@ -1636,11 +1645,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AZ8:BA9"/>
-    <mergeCell ref="BB8:BC9"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AM5:AO7"/>
-    <mergeCell ref="AR8:AR10"/>
     <mergeCell ref="C2:BB2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:I3"/>
@@ -1655,6 +1659,11 @@
     <mergeCell ref="AN3:AR3"/>
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="AZ8:BA9"/>
+    <mergeCell ref="BB8:BC9"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AM5:AO7"/>
+    <mergeCell ref="AR8:AR10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D35851-EC24-4991-9419-AB177E66A80B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF330CCB-E9EE-49A6-98F3-E815A93F4AC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="2628" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Py" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,12 +228,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
@@ -425,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -447,7 +441,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,17 +468,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -703,8 +696,8 @@
   </sheetPr>
   <dimension ref="A2:CE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AX7" sqref="AX7"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="BC4" sqref="BC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -732,150 +725,151 @@
     <col min="45" max="45" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="48" width="4.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="50" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="4.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="4.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6.77734375" style="1" customWidth="1"/>
     <col min="54" max="55" width="9.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="34"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="17"/>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="32" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="32" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="32" t="s">
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="32" t="s">
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="32" t="s">
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="32" t="s">
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="32" t="s">
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="32" t="s">
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="32" t="s">
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="33"/>
-      <c r="AQ3" s="33"/>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="32" t="s">
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="33"/>
-      <c r="AU3" s="33"/>
-      <c r="AV3" s="34"/>
-      <c r="AW3" s="32" t="s">
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="33"/>
-      <c r="AY3" s="33"/>
-      <c r="AZ3" s="34"/>
-      <c r="BA3" s="32" t="s">
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="17"/>
+      <c r="BA3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="34"/>
+      <c r="BB3" s="17"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -1061,7 +1055,7 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="20" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1146,11 +1140,11 @@
       <c r="AL5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM5" s="21" t="s">
+      <c r="AM5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="23"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="25"/>
       <c r="AP5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1188,9 +1182,9 @@
         <v>19</v>
       </c>
       <c r="BB5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC5" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1222,7 +1216,7 @@
       <c r="I6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="9" t="s">
         <v>23</v>
       </c>
@@ -1307,9 +1301,9 @@
       <c r="AL6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="28"/>
       <c r="AP6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1347,9 +1341,9 @@
         <v>19</v>
       </c>
       <c r="BB6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC6" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1376,7 +1370,7 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="20"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1456,9 +1450,9 @@
       <c r="AL7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="31"/>
       <c r="AP7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1495,10 +1489,10 @@
       <c r="BA7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="BB7" s="15" t="s">
+      <c r="BB7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="BC7" s="15" t="s">
+      <c r="BC7" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1527,33 +1521,33 @@
       <c r="AB8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="30" t="s">
+      <c r="AR8" s="32" t="s">
         <v>31</v>
       </c>
       <c r="AW8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AZ8" s="16" t="s">
+      <c r="AZ8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="BA8" s="16"/>
-      <c r="BB8" s="16" t="s">
+      <c r="BA8" s="18"/>
+      <c r="BB8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="BC8" s="16"/>
+      <c r="BC8" s="18"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="AR9" s="31"/>
+      <c r="AR9" s="33"/>
       <c r="AW9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="17"/>
-      <c r="BC9" s="17"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19"/>
+      <c r="BC9" s="19"/>
     </row>
     <row r="10" spans="1:55" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AR10" s="31"/>
+      <c r="AR10" s="33"/>
       <c r="AW10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1645,6 +1639,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AZ8:BA9"/>
+    <mergeCell ref="BB8:BC9"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AM5:AO7"/>
+    <mergeCell ref="AR8:AR10"/>
     <mergeCell ref="C2:BB2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:I3"/>
@@ -1659,11 +1658,6 @@
     <mergeCell ref="AN3:AR3"/>
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="AZ8:BA9"/>
-    <mergeCell ref="BB8:BC9"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AM5:AO7"/>
-    <mergeCell ref="AR8:AR10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF330CCB-E9EE-49A6-98F3-E815A93F4AC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6239F3FC-E938-41D1-961F-F2A201C947A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,8 +696,8 @@
   </sheetPr>
   <dimension ref="A2:CE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="BC4" sqref="BC4"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="AZ5" sqref="AZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -731,7 +731,7 @@
     <col min="56" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="15" t="s">
         <v>0</v>
@@ -788,7 +788,7 @@
       <c r="BA2" s="16"/>
       <c r="BB2" s="17"/>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -871,7 +871,7 @@
       </c>
       <c r="BB3" s="17"/>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -1175,20 +1175,20 @@
       <c r="AY5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AZ5" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="BA5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="BB5" s="14" t="s">
-        <v>20</v>
+      <c r="BB5" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="BC5" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="BD5" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
@@ -1334,20 +1334,20 @@
       <c r="AY6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AZ6" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="BA6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="BB6" s="14" t="s">
-        <v>20</v>
+      <c r="BB6" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="BC6" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="BD6" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -1483,20 +1483,20 @@
       <c r="AY7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AZ7" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="BA7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="BB7" s="14" t="s">
-        <v>20</v>
+      <c r="BB7" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="BC7" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="BD7" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
         <v>26</v>
       </c>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="BC8" s="18"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AR9" s="33"/>
       <c r="AW9" s="7" t="s">
         <v>19</v>
@@ -1546,7 +1546,7 @@
       <c r="BB9" s="19"/>
       <c r="BC9" s="19"/>
     </row>
-    <row r="10" spans="1:55" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR10" s="33"/>
       <c r="AW10" s="7" t="s">
         <v>19</v>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6239F3FC-E938-41D1-961F-F2A201C947A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA702296-19FB-4C50-8BC6-498685965C84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="42">
   <si>
     <t>Календарный план занятий 222 потока группа PY</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Dj</t>
   </si>
   <si>
-    <t>Diplom</t>
-  </si>
-  <si>
     <t>Амина</t>
   </si>
   <si>
@@ -109,23 +106,68 @@
     <t>Андриенко вт чт пт</t>
   </si>
   <si>
-    <t>Экзамен</t>
-  </si>
-  <si>
-    <t>Дипломный проект</t>
-  </si>
-  <si>
     <t>html / css / js</t>
+  </si>
+  <si>
+    <t>Диас</t>
+  </si>
+  <si>
+    <t>Арман</t>
+  </si>
+  <si>
+    <t>Марина</t>
+  </si>
+  <si>
+    <t>03.11.2023
+Алмас / Әбілқайыр</t>
+  </si>
+  <si>
+    <t>23.11.2023
+Дина /
+Амина</t>
+  </si>
+  <si>
+    <t>17.11.2023
+Алмас / Нышанали</t>
+  </si>
+  <si>
+    <t>27.10.2023
+Дина / Расул</t>
+  </si>
+  <si>
+    <t>21.11.2023
+Әбілқайыр / Расул</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.11.2023
+Айгерим / Сергей </t>
+  </si>
+  <si>
+    <t>28.11.2023
+Айгерим /  Сергей</t>
+  </si>
+  <si>
+    <t>07.11.2023
+Амина / Алема</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.11.2023
+Нышанали / Илья </t>
+  </si>
+  <si>
+    <t>24.11.2023
+Алема / Илья</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\ mmmm"/>
+    <numFmt numFmtId="165" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -169,8 +211,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,13 +276,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFF4CCCC"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -439,19 +494,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,10 +527,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -696,8 +755,8 @@
   </sheetPr>
   <dimension ref="A2:CE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="AZ5" sqref="AZ5"/>
+    <sheetView tabSelected="1" topLeftCell="AK3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AZ10" sqref="AZ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -725,153 +784,157 @@
     <col min="45" max="45" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="48" width="4.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="50" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="6.77734375" style="1" customWidth="1"/>
-    <col min="54" max="55" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="6" style="1"/>
+    <col min="51" max="51" width="4.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.5546875" style="1" customWidth="1"/>
+    <col min="53" max="53" width="15.21875" style="1" customWidth="1"/>
+    <col min="54" max="54" width="14.5546875" style="1" customWidth="1"/>
+    <col min="55" max="55" width="15" style="1" customWidth="1"/>
+    <col min="56" max="56" width="18.77734375" style="1" customWidth="1"/>
+    <col min="57" max="57" width="14" style="1" customWidth="1"/>
+    <col min="58" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="17"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="23"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="15" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="15" t="s">
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="15" t="s">
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="15" t="s">
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="15" t="s">
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="15" t="s">
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="15" t="s">
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="15" t="s">
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="15" t="s">
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="15" t="s">
+      <c r="AT3" s="22"/>
+      <c r="AU3" s="22"/>
+      <c r="AV3" s="23"/>
+      <c r="AW3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="16"/>
-      <c r="AY3" s="16"/>
-      <c r="AZ3" s="17"/>
-      <c r="BA3" s="15" t="s">
+      <c r="AX3" s="22"/>
+      <c r="AY3" s="22"/>
+      <c r="AZ3" s="23"/>
+      <c r="BA3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="17"/>
+      <c r="BB3" s="23"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1032,7 +1095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" ht="87" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -1055,7 +1118,7 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="24" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1140,11 +1203,11 @@
       <c r="AL5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM5" s="23" t="s">
+      <c r="AM5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="25"/>
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="29"/>
       <c r="AP5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1175,92 +1238,96 @@
       <c r="AY5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="BA5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="BB5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC5" s="14" t="s">
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="15">
+        <v>45230</v>
+      </c>
+      <c r="BB5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC5" s="16">
+        <v>45244</v>
+      </c>
+      <c r="BD5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE5" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BD5" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="O6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="P6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="Q6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="R6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="S6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="T6" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z6" s="7" t="s">
         <v>19</v>
@@ -1293,7 +1360,7 @@
         <v>19</v>
       </c>
       <c r="AJ6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK6" s="7" t="s">
         <v>19</v>
@@ -1301,9 +1368,9 @@
       <c r="AL6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="27"/>
-      <c r="AO6" s="28"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="32"/>
       <c r="AP6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1334,20 +1401,22 @@
       <c r="AY6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="BA6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="BB6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD6" s="14" t="s">
-        <v>20</v>
-      </c>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB6" s="15">
+        <v>45239</v>
+      </c>
+      <c r="BC6" s="16">
+        <v>45246</v>
+      </c>
+      <c r="BD6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE6" s="14"/>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -1370,7 +1439,7 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="22"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1442,78 +1511,82 @@
         <v>19</v>
       </c>
       <c r="AJ7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE7" s="14"/>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AK7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="30"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AV7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="BA7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="BB7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD7" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="C8" s="8" t="s">
+      <c r="U8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="U8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y8" s="8" t="s">
+      <c r="Z8" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="AA8" s="6" t="s">
         <v>18</v>
@@ -1521,36 +1594,41 @@
       <c r="AB8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="32" t="s">
+      <c r="AR8" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW8" s="7"/>
+      <c r="AZ8" s="13"/>
+      <c r="BB8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AW8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ8" s="18" t="s">
+      <c r="BC8" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="AR9" s="37"/>
+      <c r="AW9" s="7"/>
+      <c r="BB9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="BA8" s="18"/>
-      <c r="BB8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="BC8" s="18"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="AR9" s="33"/>
-      <c r="AW9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19"/>
-      <c r="BC9" s="19"/>
+    <row r="10" spans="1:57" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AR10" s="37"/>
+      <c r="AW10" s="7"/>
     </row>
-    <row r="10" spans="1:56" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AR10" s="33"/>
-      <c r="AW10" s="7" t="s">
-        <v>19</v>
-      </c>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BA11" s="17"/>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BA12" s="17"/>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="AZ13" s="17"/>
+      <c r="BB13" s="17"/>
+      <c r="BC13" s="17"/>
+      <c r="BD13" s="17"/>
+      <c r="BE13" s="17"/>
     </row>
     <row r="39" spans="1:83" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
@@ -1638,9 +1716,9 @@
       <c r="CE39" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="AZ8:BA9"/>
-    <mergeCell ref="BB8:BC9"/>
+  <mergeCells count="17">
+    <mergeCell ref="AS3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="AM5:AO7"/>
     <mergeCell ref="AR8:AR10"/>
@@ -1656,8 +1734,6 @@
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AJ3:AM3"/>
     <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AV3"/>
-    <mergeCell ref="AW3:AZ3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA702296-19FB-4C50-8BC6-498685965C84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333D18D8-C768-48F1-80F3-28120A0DB75B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="43">
   <si>
     <t>Календарный план занятий 222 потока группа PY</t>
   </si>
@@ -107,15 +107,6 @@
   </si>
   <si>
     <t>html / css / js</t>
-  </si>
-  <si>
-    <t>Диас</t>
-  </si>
-  <si>
-    <t>Арман</t>
-  </si>
-  <si>
-    <t>Марина</t>
   </si>
   <si>
     <t>03.11.2023
@@ -157,6 +148,22 @@
   <si>
     <t>24.11.2023
 Алема / Илья</t>
+  </si>
+  <si>
+    <t>31.10.2023
+Арман / Марина</t>
+  </si>
+  <si>
+    <t>16.11.2023
+Диас / Марина</t>
+  </si>
+  <si>
+    <t>09.11.2023
+Диас / Марина</t>
+  </si>
+  <si>
+    <t>14.11.2023
+Арман</t>
   </si>
 </sst>
 </file>
@@ -219,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,12 +293,6 @@
         <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -474,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -496,8 +497,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -505,7 +504,6 @@
     <xf numFmtId="165" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -756,7 +754,7 @@
   <dimension ref="A2:CE39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AZ10" sqref="AZ10"/>
+      <selection activeCell="AZ9" sqref="AZ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -796,143 +794,143 @@
   <sheetData>
     <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
-      <c r="AW2" s="22"/>
-      <c r="AX2" s="22"/>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="22"/>
-      <c r="BA2" s="22"/>
-      <c r="BB2" s="23"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
+      <c r="BB2" s="20"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="21" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="21" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="21" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="21" t="s">
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="21" t="s">
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="21" t="s">
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="21" t="s">
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="21" t="s">
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="21" t="s">
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="23"/>
-      <c r="AS3" s="21" t="s">
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="22"/>
-      <c r="AU3" s="22"/>
-      <c r="AV3" s="23"/>
-      <c r="AW3" s="21" t="s">
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="22"/>
-      <c r="AY3" s="22"/>
-      <c r="AZ3" s="23"/>
-      <c r="BA3" s="21" t="s">
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="23"/>
+      <c r="BB3" s="20"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -1118,7 +1116,7 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="21" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1203,11 +1201,11 @@
       <c r="AL5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM5" s="27" t="s">
+      <c r="AM5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="29"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="26"/>
       <c r="AP5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1239,20 +1237,20 @@
         <v>19</v>
       </c>
       <c r="AZ5" s="14"/>
-      <c r="BA5" s="15">
-        <v>45230</v>
-      </c>
-      <c r="BB5" s="18" t="s">
+      <c r="BA5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="BC5" s="16">
-        <v>45244</v>
-      </c>
-      <c r="BD5" s="19" t="s">
+      <c r="BB5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="BE5" s="19" t="s">
-        <v>38</v>
+      <c r="BC5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE5" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:57" ht="52.2" x14ac:dyDescent="0.3">
@@ -1283,7 +1281,7 @@
       <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="25"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1368,9 +1366,9 @@
       <c r="AL6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="32"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="29"/>
       <c r="AP6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1402,17 +1400,17 @@
         <v>19</v>
       </c>
       <c r="AZ6" s="14"/>
-      <c r="BA6" s="18" t="s">
+      <c r="BA6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="BB6" s="15">
-        <v>45239</v>
-      </c>
-      <c r="BC6" s="16">
-        <v>45246</v>
-      </c>
-      <c r="BD6" s="19" t="s">
-        <v>33</v>
+      <c r="BD6" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="BE6" s="14"/>
     </row>
@@ -1439,7 +1437,7 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="26"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1519,9 +1517,9 @@
       <c r="AL7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="35"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="32"/>
       <c r="AP7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1552,20 +1550,20 @@
       <c r="AY7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AZ7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA7" s="18" t="s">
+      <c r="AZ7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="BB7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="BC7" s="19" t="s">
+      <c r="BA7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="BD7" s="19" t="s">
-        <v>41</v>
+      <c r="BC7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD7" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="BE7" s="14"/>
     </row>
@@ -1594,41 +1592,32 @@
       <c r="AB8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="36" t="s">
+      <c r="AR8" s="33" t="s">
         <v>28</v>
       </c>
       <c r="AW8" s="7"/>
       <c r="AZ8" s="13"/>
-      <c r="BB8" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC8" s="20" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="AR9" s="37"/>
+      <c r="AR9" s="34"/>
       <c r="AW9" s="7"/>
-      <c r="BB9" s="20" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="10" spans="1:57" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AR10" s="37"/>
+      <c r="AR10" s="34"/>
       <c r="AW10" s="7"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="BA11" s="17"/>
+      <c r="BA11" s="15"/>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="BA12" s="17"/>
+      <c r="BA12" s="15"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="AZ13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="17"/>
+      <c r="AZ13" s="15"/>
+      <c r="BB13" s="15"/>
+      <c r="BC13" s="15"/>
+      <c r="BD13" s="15"/>
+      <c r="BE13" s="15"/>
     </row>
     <row r="39" spans="1:83" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
@@ -1717,11 +1706,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AS3:AV3"/>
-    <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AM5:AO7"/>
-    <mergeCell ref="AR8:AR10"/>
     <mergeCell ref="C2:BB2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:I3"/>
@@ -1734,6 +1718,11 @@
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AJ3:AM3"/>
     <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AM5:AO7"/>
+    <mergeCell ref="AR8:AR10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333D18D8-C768-48F1-80F3-28120A0DB75B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9229372A-3634-4622-807F-591782CCFBB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +293,12 @@
         <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -475,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -530,6 +536,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,8 +762,8 @@
   </sheetPr>
   <dimension ref="A2:CE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AZ9" sqref="AZ9"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="BE6" sqref="BE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1550,7 +1559,7 @@
       <c r="AY7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AZ7" s="16" t="s">
+      <c r="AZ7" s="35" t="s">
         <v>32</v>
       </c>
       <c r="BA7" s="16" t="s">
@@ -1706,6 +1715,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AM5:AO7"/>
+    <mergeCell ref="AR8:AR10"/>
     <mergeCell ref="C2:BB2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:I3"/>
@@ -1720,9 +1732,6 @@
     <mergeCell ref="AN3:AR3"/>
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AM5:AO7"/>
-    <mergeCell ref="AR8:AR10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9229372A-3634-4622-807F-591782CCFBB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9FFDD5-95A6-45E1-AB84-4476CFB19644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="45">
   <si>
     <t>Календарный план занятий 222 потока группа PY</t>
   </si>
@@ -130,10 +130,6 @@
 Әбілқайыр / Расул</t>
   </si>
   <si>
-    <t xml:space="preserve">10.11.2023
-Айгерим / Сергей </t>
-  </si>
-  <si>
     <t>28.11.2023
 Айгерим /  Сергей</t>
   </si>
@@ -150,10 +146,6 @@
 Алема / Илья</t>
   </si>
   <si>
-    <t>31.10.2023
-Арман / Марина</t>
-  </si>
-  <si>
     <t>16.11.2023
 Диас / Марина</t>
   </si>
@@ -162,8 +154,22 @@
 Диас / Марина</t>
   </si>
   <si>
-    <t>14.11.2023
+    <t>30.11.2023
 Арман</t>
+  </si>
+  <si>
+    <t>31.10.2023
+Марина / Сергей / Арман</t>
+  </si>
+  <si>
+    <t>10.11.2023
+Айгерим</t>
+  </si>
+  <si>
+    <t>Экзамен</t>
+  </si>
+  <si>
+    <t>Дипломный проект</t>
   </si>
 </sst>
 </file>
@@ -481,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -510,11 +516,9 @@
     <xf numFmtId="165" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,8 +541,25 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,7 +784,7 @@
   <dimension ref="A2:CE39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BE6" sqref="BE6"/>
+      <selection activeCell="BC5" sqref="BC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -803,143 +824,143 @@
   <sheetData>
     <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19"/>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="20"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="35"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="18" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="18" t="s">
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="18" t="s">
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="18" t="s">
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="18" t="s">
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="18" t="s">
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="18" t="s">
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="18" t="s">
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="35"/>
+      <c r="AS3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="18" t="s">
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="35"/>
+      <c r="AW3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="18" t="s">
+      <c r="AX3" s="34"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="35"/>
+      <c r="BA3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="20"/>
+      <c r="BB3" s="35"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -1125,7 +1146,7 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1210,11 +1231,11 @@
       <c r="AL5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM5" s="24" t="s">
+      <c r="AM5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="26"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="24"/>
       <c r="AP5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1246,20 +1267,17 @@
         <v>19</v>
       </c>
       <c r="AZ5" s="14"/>
-      <c r="BA5" s="16" t="s">
-        <v>39</v>
+      <c r="BA5" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="BB5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC5" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="BD5" s="17" t="s">
         <v>33</v>
       </c>
       <c r="BE5" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:57" ht="52.2" x14ac:dyDescent="0.3">
@@ -1290,7 +1308,7 @@
       <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1375,9 +1393,9 @@
       <c r="AL6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="29"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="27"/>
       <c r="AP6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1410,20 +1428,22 @@
       </c>
       <c r="AZ6" s="14"/>
       <c r="BA6" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BB6" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BC6" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BD6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="BE6" s="14"/>
+      <c r="BE6" s="17" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:57" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" ht="52.2" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -1446,7 +1466,7 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1526,9 +1546,9 @@
       <c r="AL7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="32"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="30"/>
       <c r="AP7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1559,24 +1579,24 @@
       <c r="AY7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AZ7" s="35" t="s">
+      <c r="AZ7" s="18" t="s">
         <v>32</v>
       </c>
       <c r="BA7" s="16" t="s">
         <v>29</v>
       </c>
       <c r="BB7" s="16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="BC7" s="17" t="s">
         <v>31</v>
       </c>
       <c r="BD7" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BE7" s="14"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1601,18 +1621,27 @@
       <c r="AB8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="33" t="s">
+      <c r="AR8" s="31" t="s">
         <v>28</v>
       </c>
       <c r="AW8" s="7"/>
       <c r="AZ8" s="13"/>
+      <c r="BA8" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB8" s="37"/>
+      <c r="BC8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD8" s="39"/>
+      <c r="BE8" s="40"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="AR9" s="34"/>
+      <c r="AR9" s="32"/>
       <c r="AW9" s="7"/>
     </row>
     <row r="10" spans="1:57" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AR10" s="34"/>
+      <c r="AR10" s="32"/>
       <c r="AW10" s="7"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.3">
@@ -1714,7 +1743,10 @@
       <c r="CE39" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="BA8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="AM5:AO7"/>
     <mergeCell ref="AR8:AR10"/>
@@ -1731,7 +1763,6 @@
     <mergeCell ref="AJ3:AM3"/>
     <mergeCell ref="AN3:AR3"/>
     <mergeCell ref="AS3:AV3"/>
-    <mergeCell ref="AW3:AZ3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9FFDD5-95A6-45E1-AB84-4476CFB19644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11368154-9A61-4AC9-B844-0204392BFD3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="45">
   <si>
     <t>Календарный план занятий 222 потока группа PY</t>
   </si>
@@ -126,50 +126,51 @@
 Дина / Расул</t>
   </si>
   <si>
+    <t>16.11.2023
+Диас / Марина</t>
+  </si>
+  <si>
+    <t>09.11.2023
+Диас / Марина</t>
+  </si>
+  <si>
+    <t>31.10.2023
+Марина / Сергей / Арман</t>
+  </si>
+  <si>
+    <t>Экзамен</t>
+  </si>
+  <si>
+    <t>Дипломный проект</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.11.2023
+Илья </t>
+  </si>
+  <si>
+    <t>10.11.2023
+Айгерим / Нышанали</t>
+  </si>
+  <si>
+    <t>24.11.2023
+Алема / 
+Илья</t>
+  </si>
+  <si>
+    <t>07.12.2023
+Арман</t>
+  </si>
+  <si>
+    <t>05.12.2023
+Айгерим /  Сергей</t>
+  </si>
+  <si>
+    <t>07.11.2023
+Амина / Алема</t>
+  </si>
+  <si>
     <t>21.11.2023
 Әбілқайыр / Расул</t>
-  </si>
-  <si>
-    <t>28.11.2023
-Айгерим /  Сергей</t>
-  </si>
-  <si>
-    <t>07.11.2023
-Амина / Алема</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.11.2023
-Нышанали / Илья </t>
-  </si>
-  <si>
-    <t>24.11.2023
-Алема / Илья</t>
-  </si>
-  <si>
-    <t>16.11.2023
-Диас / Марина</t>
-  </si>
-  <si>
-    <t>09.11.2023
-Диас / Марина</t>
-  </si>
-  <si>
-    <t>30.11.2023
-Арман</t>
-  </si>
-  <si>
-    <t>31.10.2023
-Марина / Сергей / Арман</t>
-  </si>
-  <si>
-    <t>10.11.2023
-Айгерим</t>
-  </si>
-  <si>
-    <t>Экзамен</t>
-  </si>
-  <si>
-    <t>Дипломный проект</t>
   </si>
 </sst>
 </file>
@@ -306,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -483,11 +484,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -507,18 +523,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,25 +551,35 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,7 +804,7 @@
   <dimension ref="A2:CE39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BC5" sqref="BC5"/>
+      <selection activeCell="BF6" sqref="BF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -814,7 +834,7 @@
     <col min="49" max="50" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="4.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="14.5546875" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.21875" style="1" customWidth="1"/>
+    <col min="53" max="53" width="20.44140625" style="1" customWidth="1"/>
     <col min="54" max="54" width="14.5546875" style="1" customWidth="1"/>
     <col min="55" max="55" width="15" style="1" customWidth="1"/>
     <col min="56" max="56" width="18.77734375" style="1" customWidth="1"/>
@@ -824,145 +844,150 @@
   <sheetData>
     <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="34"/>
-      <c r="BB2" s="35"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="22"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="33" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="33" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="33" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="33" t="s">
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="33" t="s">
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="33" t="s">
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="33" t="s">
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="33" t="s">
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="33" t="s">
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="33" t="s">
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="33" t="s">
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="34"/>
-      <c r="AY3" s="34"/>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="33" t="s">
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="35"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="31"/>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="32" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1101,29 +1126,36 @@
       <c r="AU4" s="2">
         <v>18</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AV4" s="33">
         <v>25</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="AW4" s="37">
         <v>2</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="AX4" s="37">
         <v>9</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AY4" s="37">
         <v>16</v>
       </c>
-      <c r="AZ4" s="2">
-        <v>23</v>
-      </c>
-      <c r="BA4" s="2">
+      <c r="AZ4" s="37"/>
+      <c r="BA4" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB4" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC4" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="BB4" s="2">
-        <v>6</v>
+      <c r="BE4" s="44" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="87" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" ht="52.2" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -1146,7 +1178,7 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1231,11 +1263,11 @@
       <c r="AL5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM5" s="22" t="s">
+      <c r="AM5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="24"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="22"/>
       <c r="AP5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1254,30 +1286,33 @@
       <c r="AU5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AV5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="18" t="s">
+      <c r="AV5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB5" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC5" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD5" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE5" s="44" t="s">
         <v>41</v>
-      </c>
-      <c r="BB5" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="BE5" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:57" ht="52.2" x14ac:dyDescent="0.3">
@@ -1308,7 +1343,7 @@
       <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1393,9 +1428,9 @@
       <c r="AL6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="27"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="25"/>
       <c r="AP6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1414,36 +1449,32 @@
       <c r="AU6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AV6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB6" s="16" t="s">
+      <c r="AV6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW6" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX6" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY6" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ6" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA6" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB6" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="BC6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="BD6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="BE6" s="17" t="s">
-        <v>40</v>
+      <c r="BC6" s="44" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -1466,7 +1497,7 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1546,9 +1577,9 @@
       <c r="AL7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="30"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="28"/>
       <c r="AP7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1567,34 +1598,28 @@
       <c r="AU7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AV7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="BA7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD7" s="17" t="s">
+      <c r="AV7" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW7" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX7" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY7" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ7" s="32"/>
+      <c r="BA7" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB7" s="40"/>
+      <c r="BC7" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="BE7" s="14"/>
+      <c r="BD7" s="41"/>
+      <c r="BE7" s="41"/>
     </row>
     <row r="8" spans="1:57" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
@@ -1621,41 +1646,34 @@
       <c r="AB8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="31" t="s">
+      <c r="AR8" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AW8" s="7"/>
-      <c r="AZ8" s="13"/>
-      <c r="BA8" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="BB8" s="37"/>
-      <c r="BC8" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD8" s="39"/>
-      <c r="BE8" s="40"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="32"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="32"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="AR9" s="32"/>
-      <c r="AW9" s="7"/>
+      <c r="AR9" s="30"/>
+      <c r="AW9" s="35"/>
     </row>
     <row r="10" spans="1:57" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AR10" s="32"/>
+      <c r="AR10" s="30"/>
       <c r="AW10" s="7"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="BA11" s="15"/>
+      <c r="BA11" s="13"/>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="BA12" s="15"/>
+      <c r="BA12" s="13"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="AZ13" s="15"/>
-      <c r="BB13" s="15"/>
-      <c r="BC13" s="15"/>
-      <c r="BD13" s="15"/>
-      <c r="BE13" s="15"/>
+      <c r="AZ13" s="13"/>
+      <c r="BB13" s="13"/>
+      <c r="BC13" s="13"/>
+      <c r="BD13" s="13"/>
+      <c r="BE13" s="13"/>
     </row>
     <row r="39" spans="1:83" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
@@ -1744,12 +1762,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="BA8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AM5:AO7"/>
-    <mergeCell ref="AR8:AR10"/>
     <mergeCell ref="C2:BB2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:I3"/>
@@ -1757,12 +1769,18 @@
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="S3:V3"/>
     <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AJ3:AM3"/>
     <mergeCell ref="AN3:AR3"/>
     <mergeCell ref="AS3:AV3"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="BA7:BB7"/>
+    <mergeCell ref="BC7:BE7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AM5:AO7"/>
+    <mergeCell ref="AR8:AR10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11368154-9A61-4AC9-B844-0204392BFD3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15536AA6-7FA8-4E28-AE1A-1E6EDF4616CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="44">
   <si>
     <t>Календарный план занятий 222 потока группа PY</t>
   </si>
@@ -126,14 +126,6 @@
 Дина / Расул</t>
   </si>
   <si>
-    <t>16.11.2023
-Диас / Марина</t>
-  </si>
-  <si>
-    <t>09.11.2023
-Диас / Марина</t>
-  </si>
-  <si>
     <t>31.10.2023
 Марина / Сергей / Арман</t>
   </si>
@@ -157,20 +149,25 @@
 Илья</t>
   </si>
   <si>
-    <t>07.12.2023
-Арман</t>
-  </si>
-  <si>
     <t>05.12.2023
 Айгерим /  Сергей</t>
   </si>
   <si>
-    <t>07.11.2023
-Амина / Алема</t>
-  </si>
-  <si>
     <t>21.11.2023
 Әбілқайыр / Расул</t>
+  </si>
+  <si>
+    <t>11.12.2023
+ Марина</t>
+  </si>
+  <si>
+    <t>07.12.2023
+Арман / 
+Диаc</t>
+  </si>
+  <si>
+    <t>07.11.2023
+Амина / Алема / Диас</t>
   </si>
 </sst>
 </file>
@@ -307,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -499,11 +496,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -524,11 +609,35 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,36 +660,33 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -804,7 +910,7 @@
   <dimension ref="A2:CE39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BF6" sqref="BF6"/>
+      <selection activeCell="BB5" sqref="BB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -844,146 +950,146 @@
   <sheetData>
     <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="22"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="32"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="14" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14" t="s">
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="14" t="s">
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="14" t="s">
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="14" t="s">
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="14" t="s">
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="14" t="s">
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="31" t="s">
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="31" t="s">
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="31"/>
-      <c r="BD3" s="31"/>
-      <c r="BE3" s="32" t="s">
+      <c r="BB3" s="48"/>
+      <c r="BC3" s="48"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="24" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1126,36 +1232,33 @@
       <c r="AU4" s="2">
         <v>18</v>
       </c>
-      <c r="AV4" s="33">
+      <c r="AV4" s="15">
         <v>25</v>
       </c>
-      <c r="AW4" s="37">
+      <c r="AW4" s="18">
         <v>2</v>
       </c>
-      <c r="AX4" s="37">
+      <c r="AX4" s="18">
         <v>9</v>
       </c>
-      <c r="AY4" s="37">
+      <c r="AY4" s="18">
         <v>16</v>
       </c>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="BB4" s="43" t="s">
+      <c r="AZ4" s="18"/>
+      <c r="BA4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BC4" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD4" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="BE4" s="44" t="s">
-        <v>42</v>
+      <c r="BD4" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE4" s="23" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -1178,7 +1281,7 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="27" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1263,11 +1366,11 @@
       <c r="AL5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM5" s="20" t="s">
+      <c r="AM5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="22"/>
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="32"/>
       <c r="AP5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1286,33 +1389,27 @@
       <c r="AU5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AV5" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW5" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX5" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY5" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ5" s="39"/>
-      <c r="BA5" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB5" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="BC5" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD5" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="BE5" s="44" t="s">
-        <v>41</v>
+      <c r="AV5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ5" s="20"/>
+      <c r="BA5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="BE5" s="23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:57" ht="52.2" x14ac:dyDescent="0.3">
@@ -1343,7 +1440,7 @@
       <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="18"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1428,9 +1525,9 @@
       <c r="AL6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM6" s="23"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="25"/>
+      <c r="AM6" s="33"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="35"/>
       <c r="AP6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1449,32 +1546,38 @@
       <c r="AU6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AV6" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW6" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX6" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY6" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ6" s="42" t="s">
+      <c r="AV6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="BA6" s="43" t="s">
+      <c r="BA6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="BB6" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC6" s="44" t="s">
-        <v>44</v>
+      <c r="BB6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE6" s="23" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -1497,7 +1600,7 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="29"/>
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1577,9 +1680,9 @@
       <c r="AL7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="28"/>
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="38"/>
       <c r="AP7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1598,28 +1701,28 @@
       <c r="AU7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AV7" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW7" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX7" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY7" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ7" s="32"/>
-      <c r="BA7" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB7" s="40"/>
-      <c r="BC7" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="BD7" s="41"/>
-      <c r="BE7" s="41"/>
+      <c r="AV7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ7" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="43"/>
+      <c r="BC7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD7" s="26"/>
+      <c r="BE7" s="26"/>
     </row>
     <row r="8" spans="1:57" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
@@ -1646,20 +1749,19 @@
       <c r="AB8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="29" t="s">
+      <c r="AR8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AW8" s="38"/>
-      <c r="AX8" s="32"/>
-      <c r="AY8" s="32"/>
-      <c r="AZ8" s="32"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="AR9" s="30"/>
-      <c r="AW9" s="35"/>
+      <c r="AR9" s="40"/>
+      <c r="AW9" s="17"/>
     </row>
     <row r="10" spans="1:57" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AR10" s="30"/>
+      <c r="AR10" s="40"/>
       <c r="AW10" s="7"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.3">
@@ -1776,11 +1878,11 @@
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="BA3:BD3"/>
     <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="BA7:BB7"/>
     <mergeCell ref="BC7:BE7"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="AM5:AO7"/>
     <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AZ7:BB7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15536AA6-7FA8-4E28-AE1A-1E6EDF4616CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7784E6C-F4D8-4847-90F1-1CFD7318E190}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="43">
   <si>
     <t>Календарный план занятий 222 потока группа PY</t>
   </si>
@@ -118,10 +118,6 @@
 Амина</t>
   </si>
   <si>
-    <t>17.11.2023
-Алмас / Нышанали</t>
-  </si>
-  <si>
     <t>27.10.2023
 Дина / Расул</t>
   </si>
@@ -138,10 +134,6 @@
   <si>
     <t xml:space="preserve">02.11.2023
 Илья </t>
-  </si>
-  <si>
-    <t>10.11.2023
-Айгерим / Нышанали</t>
   </si>
   <si>
     <t>24.11.2023
@@ -168,6 +160,34 @@
   <si>
     <t>07.11.2023
 Амина / Алема / Диас</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17.11.2023
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Айгерим / Нышанали</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Алмас / Нышанали</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -178,7 +198,7 @@
     <numFmt numFmtId="164" formatCode="d\ mmmm"/>
     <numFmt numFmtId="165" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -224,6 +244,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -588,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -623,15 +651,32 @@
     <xf numFmtId="165" fontId="4" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -646,8 +691,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -669,24 +712,6 @@
     <xf numFmtId="165" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -910,7 +935,7 @@
   <dimension ref="A2:CE39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BB5" sqref="BB5"/>
+      <selection activeCell="BC8" sqref="BC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -942,7 +967,7 @@
     <col min="52" max="52" width="14.5546875" style="1" customWidth="1"/>
     <col min="53" max="53" width="20.44140625" style="1" customWidth="1"/>
     <col min="54" max="54" width="14.5546875" style="1" customWidth="1"/>
-    <col min="55" max="55" width="15" style="1" customWidth="1"/>
+    <col min="55" max="55" width="18.109375" style="1" customWidth="1"/>
     <col min="56" max="56" width="18.77734375" style="1" customWidth="1"/>
     <col min="57" max="57" width="14" style="1" customWidth="1"/>
     <col min="58" max="16384" width="6" style="1"/>
@@ -950,146 +975,146 @@
   <sheetData>
     <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AY2" s="31"/>
-      <c r="AZ2" s="31"/>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="32"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="27"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="44" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="44" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="44" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="44" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="44" t="s">
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="44" t="s">
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="44" t="s">
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="44" t="s">
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="44" t="s">
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="44" t="s">
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="50" t="s">
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="25"/>
+      <c r="AW3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="47" t="s">
+      <c r="AX3" s="33"/>
+      <c r="AY3" s="33"/>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="48"/>
-      <c r="BC3" s="48"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="24" t="s">
+      <c r="BB3" s="30"/>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1246,16 +1271,16 @@
       </c>
       <c r="AZ4" s="18"/>
       <c r="BA4" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BB4" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD4" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="BE4" s="23" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="BD4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE4" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:57" ht="54" customHeight="1" x14ac:dyDescent="0.3">
@@ -1281,7 +1306,7 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="36" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1366,11 +1391,11 @@
       <c r="AL5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM5" s="30" t="s">
+      <c r="AM5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="32"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="27"/>
       <c r="AP5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1403,16 +1428,16 @@
       </c>
       <c r="AZ5" s="20"/>
       <c r="BA5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="BE5" s="23" t="s">
-        <v>42</v>
+      <c r="BE5" s="22" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" ht="87" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1440,7 +1465,7 @@
       <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="28"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1525,9 +1550,9 @@
       <c r="AL6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="35"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="42"/>
       <c r="AP6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1559,22 +1584,19 @@
         <v>19</v>
       </c>
       <c r="AZ6" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BA6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="BB6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="BC6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE6" s="23" t="s">
-        <v>41</v>
+      <c r="BC6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE6" s="22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:57" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1600,7 +1622,7 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="29"/>
+      <c r="J7" s="38"/>
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1680,9 +1702,9 @@
       <c r="AL7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="36"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="38"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="45"/>
       <c r="AP7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1713,16 +1735,16 @@
       <c r="AY7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AZ7" s="41" t="s">
+      <c r="AZ7" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="50"/>
+      <c r="BC7" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="BA7" s="42"/>
-      <c r="BB7" s="43"/>
-      <c r="BC7" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD7" s="26"/>
-      <c r="BE7" s="26"/>
+      <c r="BD7" s="35"/>
+      <c r="BE7" s="35"/>
     </row>
     <row r="8" spans="1:57" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
@@ -1749,7 +1771,7 @@
       <c r="AB8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="39" t="s">
+      <c r="AR8" s="46" t="s">
         <v>28</v>
       </c>
       <c r="AW8" s="19"/>
@@ -1757,11 +1779,11 @@
       <c r="AY8" s="14"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="AR9" s="40"/>
+      <c r="AR9" s="47"/>
       <c r="AW9" s="17"/>
     </row>
     <row r="10" spans="1:57" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AR10" s="40"/>
+      <c r="AR10" s="47"/>
       <c r="AW10" s="7"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.3">
@@ -1864,6 +1886,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="BC7:BE7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AM5:AO7"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AZ7:BB7"/>
     <mergeCell ref="C2:BB2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:I3"/>
@@ -1878,11 +1905,6 @@
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="BA3:BD3"/>
     <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="BC7:BE7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AM5:AO7"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AZ7:BB7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7784E6C-F4D8-4847-90F1-1CFD7318E190}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC37675D-78AE-4072-A171-156002BF7397}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,10 +147,6 @@
   <si>
     <t>21.11.2023
 Әбілқайыр / Расул</t>
-  </si>
-  <si>
-    <t>11.12.2023
- Марина</t>
   </si>
   <si>
     <t>07.12.2023
@@ -186,8 +182,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> / Алмас / Нышанали</t>
+      <t xml:space="preserve"> / Алмас /</t>
     </r>
+  </si>
+  <si>
+    <t>12.12.2023
+Марина / Нышанали</t>
   </si>
 </sst>
 </file>
@@ -935,14 +935,14 @@
   <dimension ref="A2:CE39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BC8" sqref="BC8"/>
+      <selection activeCell="BG4" sqref="BG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="14.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="14.21875" style="1" bestFit="1" customWidth="1"/>
@@ -950,7 +950,7 @@
     <col min="21" max="21" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="4.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -959,21 +959,23 @@
     <col min="36" max="36" width="18.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="40" width="4.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="44" width="4.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="4.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="48" width="4.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="50" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.5546875" style="1" customWidth="1"/>
-    <col min="53" max="53" width="20.44140625" style="1" customWidth="1"/>
-    <col min="54" max="54" width="14.5546875" style="1" customWidth="1"/>
-    <col min="55" max="55" width="18.109375" style="1" customWidth="1"/>
-    <col min="56" max="56" width="18.77734375" style="1" customWidth="1"/>
-    <col min="57" max="57" width="14" style="1" customWidth="1"/>
-    <col min="58" max="16384" width="6" style="1"/>
+    <col min="52" max="52" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.5546875" style="1" customWidth="1"/>
+    <col min="58" max="58" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="24" t="s">
         <v>0</v>
@@ -1030,7 +1032,7 @@
       <c r="BA2" s="26"/>
       <c r="BB2" s="27"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1118,7 +1120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1274,7 +1276,7 @@
         <v>32</v>
       </c>
       <c r="BB4" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BD4" s="22" t="s">
         <v>38</v>
@@ -1282,8 +1284,11 @@
       <c r="BE4" s="22" t="s">
         <v>37</v>
       </c>
+      <c r="BF4" s="22" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:57" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -1434,10 +1439,10 @@
         <v>30</v>
       </c>
       <c r="BE5" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="87" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1590,16 +1595,13 @@
         <v>29</v>
       </c>
       <c r="BC6" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BD6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="BE6" s="22" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="7" spans="1:57" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -1746,7 +1748,7 @@
       <c r="BD7" s="35"/>
       <c r="BE7" s="35"/>
     </row>
-    <row r="8" spans="1:57" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1778,21 +1780,21 @@
       <c r="AX8" s="14"/>
       <c r="AY8" s="14"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="AR9" s="47"/>
       <c r="AW9" s="17"/>
     </row>
-    <row r="10" spans="1:57" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="AR10" s="47"/>
       <c r="AW10" s="7"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="BA11" s="13"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="BA12" s="13"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="AZ13" s="13"/>
       <c r="BB13" s="13"/>
       <c r="BC13" s="13"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC37675D-78AE-4072-A171-156002BF7397}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7417393-C95F-45FC-8073-2BB2A1480675}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,11 +113,6 @@
 Алмас / Әбілқайыр</t>
   </si>
   <si>
-    <t>23.11.2023
-Дина /
-Амина</t>
-  </si>
-  <si>
     <t>27.10.2023
 Дина / Расул</t>
   </si>
@@ -134,11 +129,6 @@
   <si>
     <t xml:space="preserve">02.11.2023
 Илья </t>
-  </si>
-  <si>
-    <t>24.11.2023
-Алема / 
-Илья</t>
   </si>
   <si>
     <t>05.12.2023
@@ -158,35 +148,21 @@
 Амина / Алема / Диас</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">17.11.2023
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Айгерим / Нышанали</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / Алмас /</t>
-    </r>
-  </si>
-  <si>
-    <t>12.12.2023
+    <t>24.12.2023
+Алмас / 
+Илья</t>
+  </si>
+  <si>
+    <t>17.11.2023
+Айгерим / Нышанали</t>
+  </si>
+  <si>
+    <t>23.11.2023
+Дина /
+Амина / Алема</t>
+  </si>
+  <si>
+    <t>17.12.2023
 Марина / Нышанали</t>
   </si>
 </sst>
@@ -198,7 +174,7 @@
     <numFmt numFmtId="164" formatCode="d\ mmmm"/>
     <numFmt numFmtId="165" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -244,14 +220,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFF00"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -332,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -529,43 +497,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -597,26 +528,28 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      </left>
+      <right style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -654,35 +587,6 @@
     <xf numFmtId="165" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,6 +595,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -703,6 +609,28 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -935,7 +863,7 @@
   <dimension ref="A2:CE39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BG4" sqref="BG4"/>
+      <selection activeCell="BE5" sqref="BE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -967,158 +895,159 @@
     <col min="51" max="51" width="4.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="14.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.5546875" style="1" customWidth="1"/>
-    <col min="58" max="58" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="59" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="27"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="28"/>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="24" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="24" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="24" t="s">
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="24" t="s">
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="24" t="s">
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="24" t="s">
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="24" t="s">
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="24" t="s">
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="24" t="s">
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="24" t="s">
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="39"/>
+      <c r="AS3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="32" t="s">
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="33"/>
-      <c r="AY3" s="33"/>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="29" t="s">
+      <c r="AX3" s="41"/>
+      <c r="AY3" s="41"/>
+      <c r="AZ3" s="41"/>
+      <c r="BA3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="31"/>
-      <c r="BE3" s="23" t="s">
+      <c r="BB3" s="40"/>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="42" t="s">
         <v>3</v>
       </c>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
     </row>
     <row r="4" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -1273,19 +1202,22 @@
       </c>
       <c r="AZ4" s="18"/>
       <c r="BA4" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BB4" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="BC4" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="BD4" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="BE4" s="22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="BF4" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
@@ -1311,7 +1243,7 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="23" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1396,11 +1328,11 @@
       <c r="AL5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM5" s="39" t="s">
+      <c r="AM5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="28"/>
       <c r="AP5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1433,16 +1365,19 @@
       </c>
       <c r="AZ5" s="20"/>
       <c r="BA5" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="BD5" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="BE5" s="22" t="s">
-        <v>39</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
     </row>
-    <row r="6" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1470,7 +1405,7 @@
       <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="37"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1555,9 +1490,9 @@
       <c r="AL6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="42"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="31"/>
       <c r="AP6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1589,17 +1524,18 @@
         <v>19</v>
       </c>
       <c r="AZ6" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BA6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="BC6" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD6" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="BB6" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="14"/>
+      <c r="BF6" s="14"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
@@ -1624,7 +1560,7 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="38"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1704,9 +1640,9 @@
       <c r="AL7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="45"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="34"/>
       <c r="AP7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1728,25 +1664,26 @@
       <c r="AV7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AW7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ7" s="48" t="s">
+      <c r="AW7" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX7" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY7" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ7" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA7" s="48"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="BA7" s="49"/>
-      <c r="BB7" s="50"/>
-      <c r="BC7" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD7" s="35"/>
-      <c r="BE7" s="35"/>
+      <c r="BD7" s="44"/>
+      <c r="BE7" s="44"/>
+      <c r="BF7" s="44"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
@@ -1773,7 +1710,7 @@
       <c r="AB8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="46" t="s">
+      <c r="AR8" s="35" t="s">
         <v>28</v>
       </c>
       <c r="AW8" s="19"/>
@@ -1781,11 +1718,11 @@
       <c r="AY8" s="14"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="AR9" s="47"/>
+      <c r="AR9" s="36"/>
       <c r="AW9" s="17"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="AR10" s="47"/>
+      <c r="AR10" s="36"/>
       <c r="AW10" s="7"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.3">
@@ -1887,12 +1824,9 @@
       <c r="CE39" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="BC7:BE7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AM5:AO7"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AZ7:BB7"/>
+  <mergeCells count="20">
+    <mergeCell ref="BC7:BF7"/>
+    <mergeCell ref="BD3:BF3"/>
     <mergeCell ref="C2:BB2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:I3"/>
@@ -1905,8 +1839,12 @@
     <mergeCell ref="AJ3:AM3"/>
     <mergeCell ref="AN3:AR3"/>
     <mergeCell ref="AS3:AV3"/>
-    <mergeCell ref="BA3:BD3"/>
     <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AM5:AO7"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AZ7:BB7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7417393-C95F-45FC-8073-2BB2A1480675}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32C7667-C73D-4AA2-B0D9-5CFB4C049ABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="42">
   <si>
     <t>Календарный план занятий 222 потока группа PY</t>
   </si>
@@ -131,17 +131,8 @@
 Илья </t>
   </si>
   <si>
-    <t>05.12.2023
-Айгерим /  Сергей</t>
-  </si>
-  <si>
     <t>21.11.2023
 Әбілқайыр / Расул</t>
-  </si>
-  <si>
-    <t>07.12.2023
-Арман / 
-Диаc</t>
   </si>
   <si>
     <t>07.11.2023
@@ -163,7 +154,11 @@
   </si>
   <si>
     <t>17.12.2023
-Марина / Нышанали</t>
+Марина / Нышанали / Диас</t>
+  </si>
+  <si>
+    <t>07.12.2023
+Айгерим /  Сергей / Арман</t>
   </si>
 </sst>
 </file>
@@ -587,6 +582,30 @@
     <xf numFmtId="165" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,8 +614,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -609,28 +626,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -863,7 +858,7 @@
   <dimension ref="A2:CE39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BE5" sqref="BE5"/>
+      <selection activeCell="BD5" sqref="BD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -898,156 +893,156 @@
     <col min="54" max="54" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.5546875" style="1" customWidth="1"/>
     <col min="58" max="58" width="14.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="59" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="31"/>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="37" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="37" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="37" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="37" t="s">
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="37" t="s">
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="37" t="s">
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="37" t="s">
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="37" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="39"/>
-      <c r="AS3" s="37" t="s">
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="40" t="s">
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="40" t="s">
+      <c r="AX3" s="34"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="40"/>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="42" t="s">
+      <c r="BB3" s="33"/>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="42"/>
+      <c r="BE3" s="27"/>
+      <c r="BF3" s="27"/>
     </row>
     <row r="4" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -1205,19 +1200,19 @@
         <v>31</v>
       </c>
       <c r="BB4" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BC4" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BD4" s="22" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="BE4" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BF4" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
@@ -1243,7 +1238,7 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="35" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1328,11 +1323,11 @@
       <c r="AL5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM5" s="26" t="s">
+      <c r="AM5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="28"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="31"/>
       <c r="AP5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1369,10 +1364,7 @@
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD5" s="22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BE5" s="14"/>
       <c r="BF5" s="14"/>
@@ -1405,7 +1397,7 @@
       <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="36"/>
       <c r="K6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1490,9 +1482,9 @@
       <c r="AL6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="31"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="41"/>
       <c r="AP6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1529,8 +1521,8 @@
       <c r="BA6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="BB6" s="45" t="s">
-        <v>40</v>
+      <c r="BB6" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="BC6" s="14"/>
       <c r="BD6" s="14"/>
@@ -1560,7 +1552,7 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="37"/>
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1640,9 +1632,9 @@
       <c r="AL7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="34"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="44"/>
       <c r="AP7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1664,13 +1656,13 @@
       <c r="AV7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AW7" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX7" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY7" s="46" t="s">
+      <c r="AW7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY7" s="24" t="s">
         <v>19</v>
       </c>
       <c r="AZ7" s="47" t="s">
@@ -1678,12 +1670,12 @@
       </c>
       <c r="BA7" s="48"/>
       <c r="BB7" s="49"/>
-      <c r="BC7" s="43" t="s">
+      <c r="BC7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="BD7" s="44"/>
-      <c r="BE7" s="44"/>
-      <c r="BF7" s="44"/>
+      <c r="BD7" s="26"/>
+      <c r="BE7" s="26"/>
+      <c r="BF7" s="26"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
@@ -1710,7 +1702,7 @@
       <c r="AB8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="35" t="s">
+      <c r="AR8" s="45" t="s">
         <v>28</v>
       </c>
       <c r="AW8" s="19"/>
@@ -1718,11 +1710,11 @@
       <c r="AY8" s="14"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="AR9" s="36"/>
+      <c r="AR9" s="46"/>
       <c r="AW9" s="17"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="AR10" s="36"/>
+      <c r="AR10" s="46"/>
       <c r="AW10" s="7"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.3">
@@ -1825,6 +1817,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AM5:AO7"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AZ7:BB7"/>
     <mergeCell ref="BC7:BF7"/>
     <mergeCell ref="BD3:BF3"/>
     <mergeCell ref="C2:BB2"/>
@@ -1841,10 +1837,6 @@
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="AW3:AZ3"/>
     <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AM5:AO7"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AZ7:BB7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32C7667-C73D-4AA2-B0D9-5CFB4C049ABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB21CE84-818D-4B5B-9726-EF1D744CED88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,21 +144,21 @@
 Илья</t>
   </si>
   <si>
-    <t>17.11.2023
-Айгерим / Нышанали</t>
-  </si>
-  <si>
     <t>23.11.2023
 Дина /
 Амина / Алема</t>
   </si>
   <si>
-    <t>17.12.2023
-Марина / Нышанали / Диас</t>
-  </si>
-  <si>
     <t>07.12.2023
 Айгерим /  Сергей / Арман</t>
+  </si>
+  <si>
+    <t>17.11.2023
+Айгерим</t>
+  </si>
+  <si>
+    <t>17.12.2023
+Марина / Диас</t>
   </si>
 </sst>
 </file>
@@ -221,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,12 +273,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,37 +487,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -540,11 +503,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -575,23 +575,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,19 +610,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -858,7 +854,7 @@
   <dimension ref="A2:CE39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BD5" sqref="BD5"/>
+      <selection activeCell="BB8" sqref="BB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -900,149 +896,149 @@
   <sheetData>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="31"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="27"/>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="28" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="28" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="28" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="28" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="28" t="s">
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="28" t="s">
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="28" t="s">
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="28" t="s">
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="28" t="s">
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="28" t="s">
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="29"/>
-      <c r="AV3" s="29"/>
-      <c r="AW3" s="33" t="s">
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="25"/>
+      <c r="AW3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="34"/>
-      <c r="AY3" s="34"/>
-      <c r="AZ3" s="34"/>
-      <c r="BA3" s="33" t="s">
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="33"/>
-      <c r="BC3" s="33"/>
-      <c r="BD3" s="27" t="s">
+      <c r="BB3" s="29"/>
+      <c r="BC3" s="29"/>
+      <c r="BD3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="BE3" s="27"/>
-      <c r="BF3" s="27"/>
+      <c r="BE3" s="23"/>
+      <c r="BF3" s="23"/>
     </row>
     <row r="4" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -1195,23 +1191,25 @@
       <c r="AY4" s="18">
         <v>16</v>
       </c>
-      <c r="AZ4" s="18"/>
-      <c r="BA4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="BB4" s="21" t="s">
+      <c r="AZ4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="BB4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="BC4" s="22" t="s">
+      <c r="BC4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="BD4" s="22" t="s">
+      <c r="BD4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="BE4" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="BF4" s="22" t="s">
+      <c r="BF4" s="21" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1238,7 +1236,7 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="31" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1323,11 +1321,11 @@
       <c r="AL5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM5" s="38" t="s">
+      <c r="AM5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="30"/>
-      <c r="AO5" s="31"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="27"/>
       <c r="AP5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1358,18 +1356,22 @@
       <c r="AY5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AZ5" s="20"/>
-      <c r="BA5" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="BB5" s="14"/>
-      <c r="BC5" s="22" t="s">
-        <v>39</v>
+      <c r="AZ5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC5" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="BE5" s="14"/>
       <c r="BF5" s="14"/>
     </row>
-    <row r="6" spans="1:58" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1397,7 +1399,7 @@
       <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="36"/>
+      <c r="J6" s="32"/>
       <c r="K6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1482,9 +1484,9 @@
       <c r="AL6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="41"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="37"/>
       <c r="AP6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1515,19 +1517,17 @@
       <c r="AY6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AZ6" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="BA6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="BC6" s="14"/>
-      <c r="BD6" s="14"/>
-      <c r="BE6" s="14"/>
-      <c r="BF6" s="14"/>
+      <c r="AZ6" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA6" s="44"/>
+      <c r="BB6" s="45"/>
+      <c r="BC6" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD6" s="47"/>
+      <c r="BE6" s="47"/>
+      <c r="BF6" s="47"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
@@ -1552,7 +1552,7 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="37"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1632,9 +1632,9 @@
       <c r="AL7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="44"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="40"/>
       <c r="AP7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1656,26 +1656,15 @@
       <c r="AV7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AW7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ7" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="BA7" s="48"/>
-      <c r="BB7" s="49"/>
-      <c r="BC7" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD7" s="26"/>
-      <c r="BE7" s="26"/>
-      <c r="BF7" s="26"/>
+      <c r="AW7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY7" s="22" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
@@ -1702,7 +1691,7 @@
       <c r="AB8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="45" t="s">
+      <c r="AR8" s="41" t="s">
         <v>28</v>
       </c>
       <c r="AW8" s="19"/>
@@ -1710,11 +1699,11 @@
       <c r="AY8" s="14"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="AR9" s="46"/>
+      <c r="AR9" s="42"/>
       <c r="AW9" s="17"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="AR10" s="46"/>
+      <c r="AR10" s="42"/>
       <c r="AW10" s="7"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.3">
@@ -1820,8 +1809,8 @@
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="AM5:AO7"/>
     <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AZ7:BB7"/>
-    <mergeCell ref="BC7:BF7"/>
+    <mergeCell ref="AZ6:BB6"/>
+    <mergeCell ref="BC6:BF6"/>
     <mergeCell ref="BD3:BF3"/>
     <mergeCell ref="C2:BB2"/>
     <mergeCell ref="C3:E3"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB21CE84-818D-4B5B-9726-EF1D744CED88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2251AAA-37B2-430D-8425-BBADA558F824}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="43">
   <si>
     <t>Календарный план занятий 222 потока группа PY</t>
   </si>
@@ -131,34 +131,43 @@
 Илья </t>
   </si>
   <si>
-    <t>21.11.2023
-Әбілқайыр / Расул</t>
-  </si>
-  <si>
     <t>07.11.2023
 Амина / Алема / Диас</t>
   </si>
   <si>
+    <t>17.11.2023
+Айгерим</t>
+  </si>
+  <si>
+    <t>10.12.2023
+воскресенье
+Айгерим /  Сергей / Арман</t>
+  </si>
+  <si>
+    <t>17.12.2023
+воскресенье
+Марина / Диас</t>
+  </si>
+  <si>
     <t>24.12.2023
+воскресенье
 Алмас / 
 Илья</t>
   </si>
   <si>
+    <t>21.11.2023
+вторник
+Әбілқайыр / Расул</t>
+  </si>
+  <si>
+    <t>03.12.2023
+воскресенье
+Дина /</t>
+  </si>
+  <si>
     <t>23.11.2023
-Дина /
+четверг
 Амина / Алема</t>
-  </si>
-  <si>
-    <t>07.12.2023
-Айгерим /  Сергей / Арман</t>
-  </si>
-  <si>
-    <t>17.11.2023
-Айгерим</t>
-  </si>
-  <si>
-    <t>17.12.2023
-Марина / Диас</t>
   </si>
 </sst>
 </file>
@@ -289,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -485,15 +494,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -544,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -581,7 +581,7 @@
     <xf numFmtId="165" fontId="4" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,19 +616,16 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -854,7 +851,7 @@
   <dimension ref="A2:CE39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BB8" sqref="BB8"/>
+      <selection activeCell="BD4" sqref="BD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -888,13 +885,14 @@
     <col min="53" max="53" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.5546875" style="1" customWidth="1"/>
-    <col min="58" max="58" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="16384" width="6" style="1"/>
+    <col min="56" max="56" width="16.21875" style="1" customWidth="1"/>
+    <col min="57" max="57" width="17.44140625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="15.77734375" style="1" customWidth="1"/>
+    <col min="59" max="59" width="15.6640625" style="1" customWidth="1"/>
+    <col min="60" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="24" t="s">
         <v>0</v>
@@ -951,7 +949,7 @@
       <c r="BA2" s="26"/>
       <c r="BB2" s="27"/>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1039,8 +1037,9 @@
       </c>
       <c r="BE3" s="23"/>
       <c r="BF3" s="23"/>
+      <c r="BG3" s="23"/>
     </row>
-    <row r="4" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" ht="226.2" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1198,22 +1197,25 @@
         <v>34</v>
       </c>
       <c r="BB4" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BC4" s="21" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BD4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="BE4" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF4" s="21" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="5" spans="1:58" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -1363,15 +1365,17 @@
         <v>29</v>
       </c>
       <c r="BB5" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="BC5" s="21" t="s">
-        <v>38</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="BD5" s="14"/>
       <c r="BE5" s="14"/>
       <c r="BF5" s="14"/>
+      <c r="BG5" s="14"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1525,11 +1529,12 @@
       <c r="BC6" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BD6" s="47"/>
-      <c r="BE6" s="47"/>
-      <c r="BF6" s="47"/>
+      <c r="BD6" s="46"/>
+      <c r="BE6" s="46"/>
+      <c r="BF6" s="46"/>
+      <c r="BG6" s="46"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -1666,7 +1671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1698,21 +1703,21 @@
       <c r="AX8" s="14"/>
       <c r="AY8" s="14"/>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="AR9" s="42"/>
       <c r="AW9" s="17"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="AR10" s="42"/>
       <c r="AW10" s="7"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="BA11" s="13"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="BA12" s="13"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="AZ13" s="13"/>
       <c r="BB13" s="13"/>
       <c r="BC13" s="13"/>
@@ -1810,8 +1815,7 @@
     <mergeCell ref="AM5:AO7"/>
     <mergeCell ref="AR8:AR10"/>
     <mergeCell ref="AZ6:BB6"/>
-    <mergeCell ref="BC6:BF6"/>
-    <mergeCell ref="BD3:BF3"/>
+    <mergeCell ref="BC6:BG6"/>
     <mergeCell ref="C2:BB2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:I3"/>
@@ -1826,6 +1830,7 @@
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="AW3:AZ3"/>
     <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BD3:BG3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2251AAA-37B2-430D-8425-BBADA558F824}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659C0932-00BF-4E17-B767-6D9785CFFC76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="42">
   <si>
     <t>Календарный план занятий 222 потока группа PY</t>
   </si>
@@ -139,35 +139,31 @@
 Айгерим</t>
   </si>
   <si>
-    <t>10.12.2023
+    <t>03.12.2023
 воскресенье
-Айгерим /  Сергей / Арман</t>
-  </si>
-  <si>
-    <t>17.12.2023
-воскресенье
-Марина / Диас</t>
+Дина /
+Расул</t>
+  </si>
+  <si>
+    <t>23.11.2023
+четверг Алема /  Әбілқайыр</t>
   </si>
   <si>
     <t>24.12.2023
 воскресенье
 Алмас / 
-Илья</t>
-  </si>
-  <si>
-    <t>21.11.2023
-вторник
-Әбілқайыр / Расул</t>
-  </si>
-  <si>
-    <t>03.12.2023
+Илья /
+Амина</t>
+  </si>
+  <si>
+    <t>10.12.2023
 воскресенье
-Дина /</t>
-  </si>
-  <si>
-    <t>23.11.2023
-четверг
-Амина / Алема</t>
+Айгерим /  Сергей</t>
+  </si>
+  <si>
+    <t>17.12.2023
+воскресенье
+Марина / Диас / Арман</t>
   </si>
 </sst>
 </file>
@@ -626,7 +622,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,7 +847,7 @@
   <dimension ref="A2:CE39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BD4" sqref="BD4"/>
+      <selection activeCell="BD8" sqref="BD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -888,7 +884,7 @@
     <col min="56" max="56" width="16.21875" style="1" customWidth="1"/>
     <col min="57" max="57" width="17.44140625" style="1" customWidth="1"/>
     <col min="58" max="58" width="15.77734375" style="1" customWidth="1"/>
-    <col min="59" max="59" width="15.6640625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="16.44140625" style="1" customWidth="1"/>
     <col min="60" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
@@ -1039,7 +1035,7 @@
       <c r="BF3" s="23"/>
       <c r="BG3" s="23"/>
     </row>
-    <row r="4" spans="1:59" ht="226.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" ht="104.4" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1199,17 +1195,17 @@
       <c r="BB4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="BC4" s="21" t="s">
+      <c r="BC4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="BD4" s="21" t="s">
+      <c r="BF4" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="BE4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="BF4" s="21" t="s">
-        <v>38</v>
       </c>
       <c r="BG4" s="21" t="s">
         <v>39</v>
@@ -1367,13 +1363,13 @@
       <c r="BB5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="BC5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD5" s="14"/>
-      <c r="BE5" s="14"/>
-      <c r="BF5" s="14"/>
-      <c r="BG5" s="14"/>
+      <c r="BC5" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD5" s="46"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="46"/>
+      <c r="BG5" s="46"/>
     </row>
     <row r="6" spans="1:59" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -1526,13 +1522,6 @@
       </c>
       <c r="BA6" s="44"/>
       <c r="BB6" s="45"/>
-      <c r="BC6" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD6" s="46"/>
-      <c r="BE6" s="46"/>
-      <c r="BF6" s="46"/>
-      <c r="BG6" s="46"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
@@ -1815,7 +1804,8 @@
     <mergeCell ref="AM5:AO7"/>
     <mergeCell ref="AR8:AR10"/>
     <mergeCell ref="AZ6:BB6"/>
-    <mergeCell ref="BC6:BG6"/>
+    <mergeCell ref="BC5:BG5"/>
+    <mergeCell ref="BD3:BG3"/>
     <mergeCell ref="C2:BB2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:I3"/>
@@ -1830,7 +1820,6 @@
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="AW3:AZ3"/>
     <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BD3:BG3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659C0932-00BF-4E17-B767-6D9785CFFC76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91273F69-C0A3-4890-9B71-F0114B12907E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="2676" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Py" sheetId="1" r:id="rId1"/>
@@ -149,21 +149,22 @@
 четверг Алема /  Әбілқайыр</t>
   </si>
   <si>
+    <t>17.12.2023
+воскресенье
+Диас / Арман</t>
+  </si>
+  <si>
     <t>24.12.2023
 воскресенье
-Алмас / 
-Илья /
-Амина</t>
+Амина /
+Илья / 
+Алмас / Айгерим</t>
   </si>
   <si>
     <t>10.12.2023
 воскресенье
-Айгерим /  Сергей</t>
-  </si>
-  <si>
-    <t>17.12.2023
-воскресенье
-Марина / Диас / Арман</t>
+Сергей / 
+Марина</t>
   </si>
 </sst>
 </file>
@@ -846,8 +847,8 @@
   </sheetPr>
   <dimension ref="A2:CE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BD8" sqref="BD8"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BC4" sqref="BC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -883,8 +884,8 @@
     <col min="55" max="55" width="15.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="16.21875" style="1" customWidth="1"/>
     <col min="57" max="57" width="17.44140625" style="1" customWidth="1"/>
-    <col min="58" max="58" width="15.77734375" style="1" customWidth="1"/>
-    <col min="59" max="59" width="16.44140625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="16.88671875" style="1" customWidth="1"/>
+    <col min="59" max="59" width="18" style="1" customWidth="1"/>
     <col min="60" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
@@ -1035,7 +1036,7 @@
       <c r="BF3" s="23"/>
       <c r="BG3" s="23"/>
     </row>
-    <row r="4" spans="1:59" ht="104.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1198,17 +1199,17 @@
       <c r="BC4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="BD4" s="21" t="s">
+      <c r="BD4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="BE4" s="21" t="s">
+      <c r="BE4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG4" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="BF4" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="BG4" s="21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="69.599999999999994" x14ac:dyDescent="0.3">
@@ -1371,7 +1372,7 @@
       <c r="BF5" s="46"/>
       <c r="BG5" s="46"/>
     </row>
-    <row r="6" spans="1:59" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91273F69-C0A3-4890-9B71-F0114B12907E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F5972A-9E61-49DF-B503-B868C995F6BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="2676" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Py" sheetId="1" r:id="rId1"/>
@@ -149,22 +149,23 @@
 четверг Алема /  Әбілқайыр</t>
   </si>
   <si>
+    <t>10.12.2023
+воскресенье
+Сергей / 
+Марина</t>
+  </si>
+  <si>
     <t>17.12.2023
-воскресенье
-Диас / Арман</t>
+воскресенье</t>
   </si>
   <si>
     <t>24.12.2023
 воскресенье
 Амина /
 Илья / 
-Алмас / Айгерим</t>
-  </si>
-  <si>
-    <t>10.12.2023
-воскресенье
-Сергей / 
-Марина</t>
+Алмас / Айгерим /
+Диас / 
+Арман</t>
   </si>
 </sst>
 </file>
@@ -579,20 +580,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,6 +588,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -625,6 +614,18 @@
     <xf numFmtId="165" fontId="4" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -848,7 +849,7 @@
   <dimension ref="A2:CE39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BC4" sqref="BC4"/>
+      <selection activeCell="BJ4" sqref="BJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -891,152 +892,152 @@
   <sheetData>
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="27"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="28"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="24" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="24" t="s">
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="24" t="s">
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="24" t="s">
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="24" t="s">
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="24" t="s">
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="24" t="s">
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="24" t="s">
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="24" t="s">
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="24" t="s">
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="29" t="s">
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="29" t="s">
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="29"/>
-      <c r="BC3" s="29"/>
-      <c r="BD3" s="23" t="s">
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="BE3" s="23"/>
-      <c r="BF3" s="23"/>
-      <c r="BG3" s="23"/>
+      <c r="BE3" s="41"/>
+      <c r="BF3" s="41"/>
+      <c r="BG3" s="41"/>
     </row>
-    <row r="4" spans="1:59" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1203,13 +1204,13 @@
         <v>37</v>
       </c>
       <c r="BE4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG4" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="BF4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG4" s="21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="69.599999999999994" x14ac:dyDescent="0.3">
@@ -1235,7 +1236,7 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="23" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1320,11 +1321,11 @@
       <c r="AL5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM5" s="34" t="s">
+      <c r="AM5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="28"/>
       <c r="AP5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1364,13 +1365,13 @@
       <c r="BB5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="BC5" s="46" t="s">
+      <c r="BC5" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
-      <c r="BG5" s="46"/>
+      <c r="BD5" s="40"/>
+      <c r="BE5" s="40"/>
+      <c r="BF5" s="40"/>
+      <c r="BG5" s="40"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -1400,7 +1401,7 @@
       <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="32"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1485,9 +1486,9 @@
       <c r="AL6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="37"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="31"/>
       <c r="AP6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1518,11 +1519,11 @@
       <c r="AY6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AZ6" s="43" t="s">
+      <c r="AZ6" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="BA6" s="44"/>
-      <c r="BB6" s="45"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="39"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
@@ -1547,7 +1548,7 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="33"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1627,9 +1628,9 @@
       <c r="AL7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="40"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="34"/>
       <c r="AP7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1686,7 +1687,7 @@
       <c r="AB8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="41" t="s">
+      <c r="AR8" s="35" t="s">
         <v>28</v>
       </c>
       <c r="AW8" s="19"/>
@@ -1694,11 +1695,11 @@
       <c r="AY8" s="14"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="AR9" s="42"/>
+      <c r="AR9" s="36"/>
       <c r="AW9" s="17"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="AR10" s="42"/>
+      <c r="AR10" s="36"/>
       <c r="AW10" s="7"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
@@ -1801,11 +1802,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AM5:AO7"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AZ6:BB6"/>
-    <mergeCell ref="BC5:BG5"/>
     <mergeCell ref="BD3:BG3"/>
     <mergeCell ref="C2:BB2"/>
     <mergeCell ref="C3:E3"/>
@@ -1821,6 +1817,11 @@
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="AW3:AZ3"/>
     <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AM5:AO7"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AZ6:BB6"/>
+    <mergeCell ref="BC5:BG5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F5972A-9E61-49DF-B503-B868C995F6BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE78BD7-A390-41E6-9774-90FC3B533852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,16 +155,16 @@
 Марина</t>
   </si>
   <si>
-    <t>17.12.2023
-воскресенье</t>
-  </si>
-  <si>
     <t>24.12.2023
 воскресенье
 Амина /
 Илья / 
 Алмас / Айгерим /
-Диас / 
+Диас</t>
+  </si>
+  <si>
+    <t>19.12.2023
+воскресенье 
 Арман</t>
   </si>
 </sst>
@@ -580,6 +580,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,8 +602,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -614,18 +626,6 @@
     <xf numFmtId="165" fontId="4" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -849,7 +849,7 @@
   <dimension ref="A2:CE39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BJ4" sqref="BJ4"/>
+      <selection activeCell="BG4" sqref="BG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -892,150 +892,150 @@
   <sheetData>
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="28"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="27"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="42" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="42" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="42" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="42" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="42" t="s">
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="42" t="s">
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="42" t="s">
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="42" t="s">
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="42" t="s">
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="42" t="s">
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="45" t="s">
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="25"/>
+      <c r="AW3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="45" t="s">
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="41" t="s">
+      <c r="BB3" s="29"/>
+      <c r="BC3" s="29"/>
+      <c r="BD3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="41"/>
-      <c r="BG3" s="41"/>
+      <c r="BE3" s="23"/>
+      <c r="BF3" s="23"/>
+      <c r="BG3" s="23"/>
     </row>
     <row r="4" spans="1:59" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -1206,11 +1206,11 @@
       <c r="BE4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="BF4" s="21" t="s">
+      <c r="BF4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG4" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="BG4" s="21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="69.599999999999994" x14ac:dyDescent="0.3">
@@ -1236,7 +1236,7 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="31" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1321,11 +1321,11 @@
       <c r="AL5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM5" s="26" t="s">
+      <c r="AM5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="28"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="27"/>
       <c r="AP5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1365,13 +1365,13 @@
       <c r="BB5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="BC5" s="40" t="s">
+      <c r="BC5" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BD5" s="40"/>
-      <c r="BE5" s="40"/>
-      <c r="BF5" s="40"/>
-      <c r="BG5" s="40"/>
+      <c r="BD5" s="46"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="46"/>
+      <c r="BG5" s="46"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -1401,7 +1401,7 @@
       <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="32"/>
       <c r="K6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1486,9 +1486,9 @@
       <c r="AL6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="31"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="37"/>
       <c r="AP6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1519,11 +1519,11 @@
       <c r="AY6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AZ6" s="37" t="s">
+      <c r="AZ6" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BA6" s="38"/>
-      <c r="BB6" s="39"/>
+      <c r="BA6" s="44"/>
+      <c r="BB6" s="45"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
@@ -1548,7 +1548,7 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1628,9 +1628,9 @@
       <c r="AL7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="34"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="40"/>
       <c r="AP7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="AB8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="35" t="s">
+      <c r="AR8" s="41" t="s">
         <v>28</v>
       </c>
       <c r="AW8" s="19"/>
@@ -1695,11 +1695,11 @@
       <c r="AY8" s="14"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="AR9" s="36"/>
+      <c r="AR9" s="42"/>
       <c r="AW9" s="17"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="AR10" s="36"/>
+      <c r="AR10" s="42"/>
       <c r="AW10" s="7"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
@@ -1802,6 +1802,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AM5:AO7"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AZ6:BB6"/>
+    <mergeCell ref="BC5:BG5"/>
     <mergeCell ref="BD3:BG3"/>
     <mergeCell ref="C2:BB2"/>
     <mergeCell ref="C3:E3"/>
@@ -1817,11 +1822,6 @@
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="AW3:AZ3"/>
     <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AM5:AO7"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AZ6:BB6"/>
-    <mergeCell ref="BC5:BG5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE78BD7-A390-41E6-9774-90FC3B533852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3C444A-8176-4A45-B2E8-BCCD1A050CE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="43">
   <si>
     <t>Календарный план занятий 222 потока группа PY</t>
   </si>
@@ -166,6 +166,11 @@
     <t>19.12.2023
 воскресенье 
 Арман</t>
+  </si>
+  <si>
+    <t>24.12.2023
+воскресенье
+Амина /</t>
   </si>
 </sst>
 </file>
@@ -580,20 +585,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,6 +593,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -626,6 +619,18 @@
     <xf numFmtId="165" fontId="4" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -849,7 +854,7 @@
   <dimension ref="A2:CE39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BG4" sqref="BG4"/>
+      <selection activeCell="BJ4" sqref="BJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -887,157 +892,158 @@
     <col min="57" max="57" width="17.44140625" style="1" customWidth="1"/>
     <col min="58" max="58" width="16.88671875" style="1" customWidth="1"/>
     <col min="59" max="59" width="18" style="1" customWidth="1"/>
-    <col min="60" max="16384" width="6" style="1"/>
+    <col min="60" max="60" width="18.44140625" style="1" customWidth="1"/>
+    <col min="61" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="27"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="28"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="24" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="24" t="s">
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="24" t="s">
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="24" t="s">
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="24" t="s">
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="24" t="s">
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="24" t="s">
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="24" t="s">
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="24" t="s">
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="24" t="s">
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="29" t="s">
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="29" t="s">
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="29"/>
-      <c r="BC3" s="29"/>
-      <c r="BD3" s="23" t="s">
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="BE3" s="23"/>
-      <c r="BF3" s="23"/>
-      <c r="BG3" s="23"/>
+      <c r="BE3" s="41"/>
+      <c r="BF3" s="41"/>
+      <c r="BG3" s="41"/>
     </row>
-    <row r="4" spans="1:59" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1209,11 +1215,14 @@
       <c r="BF4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="BG4" s="21" t="s">
+      <c r="BG4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH4" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -1236,7 +1245,7 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="23" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1321,11 +1330,11 @@
       <c r="AL5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM5" s="34" t="s">
+      <c r="AM5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="28"/>
       <c r="AP5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1365,15 +1374,15 @@
       <c r="BB5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="BC5" s="46" t="s">
+      <c r="BC5" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
-      <c r="BG5" s="46"/>
+      <c r="BD5" s="40"/>
+      <c r="BE5" s="40"/>
+      <c r="BF5" s="40"/>
+      <c r="BG5" s="40"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1401,7 +1410,7 @@
       <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="32"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1486,9 +1495,9 @@
       <c r="AL6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="37"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="31"/>
       <c r="AP6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1519,13 +1528,13 @@
       <c r="AY6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AZ6" s="43" t="s">
+      <c r="AZ6" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="BA6" s="44"/>
-      <c r="BB6" s="45"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="39"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -1548,7 +1557,7 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="33"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1628,9 +1637,9 @@
       <c r="AL7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="40"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="34"/>
       <c r="AP7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1662,7 +1671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1687,28 +1696,28 @@
       <c r="AB8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="41" t="s">
+      <c r="AR8" s="35" t="s">
         <v>28</v>
       </c>
       <c r="AW8" s="19"/>
       <c r="AX8" s="14"/>
       <c r="AY8" s="14"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="AR9" s="42"/>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="AR9" s="36"/>
       <c r="AW9" s="17"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="AR10" s="42"/>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="AR10" s="36"/>
       <c r="AW10" s="7"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="BA11" s="13"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
       <c r="BA12" s="13"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="AZ13" s="13"/>
       <c r="BB13" s="13"/>
       <c r="BC13" s="13"/>
@@ -1802,11 +1811,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AM5:AO7"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AZ6:BB6"/>
-    <mergeCell ref="BC5:BG5"/>
     <mergeCell ref="BD3:BG3"/>
     <mergeCell ref="C2:BB2"/>
     <mergeCell ref="C3:E3"/>
@@ -1822,6 +1826,11 @@
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="AW3:AZ3"/>
     <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AM5:AO7"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AZ6:BB6"/>
+    <mergeCell ref="BC5:BG5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/lections/План занятий.xlsx
+++ b/lections/План занятий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3C444A-8176-4A45-B2E8-BCCD1A050CE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2BD3E4-C8C2-491D-B4B7-06009C62CDB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="42">
   <si>
     <t>Календарный план занятий 222 потока группа PY</t>
   </si>
@@ -155,22 +155,17 @@
 Марина</t>
   </si>
   <si>
+    <t>19.12.2023
+воскресенье 
+Арман</t>
+  </si>
+  <si>
     <t>24.12.2023
 воскресенье
 Амина /
-Илья / 
-Алмас / Айгерим /
-Диас</t>
-  </si>
-  <si>
-    <t>19.12.2023
-воскресенье 
-Арман</t>
-  </si>
-  <si>
-    <t>24.12.2023
-воскресенье
-Амина /</t>
+Илья /
+Диас /
+Алмас / Айгерим</t>
   </si>
 </sst>
 </file>
@@ -233,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,12 +285,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFB6D7A8"/>
       </patternFill>
@@ -547,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -578,13 +567,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -593,8 +593,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -607,30 +605,15 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -853,8 +836,8 @@
   </sheetPr>
   <dimension ref="A2:CE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BJ4" sqref="BJ4"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BH4" sqref="BH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -896,154 +879,154 @@
     <col min="61" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="28"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="26"/>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="42" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="42" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="42" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="42" t="s">
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="42" t="s">
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="42" t="s">
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="42" t="s">
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="42" t="s">
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="42" t="s">
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="42" t="s">
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="45" t="s">
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="45" t="s">
+      <c r="AX3" s="29"/>
+      <c r="AY3" s="29"/>
+      <c r="AZ3" s="29"/>
+      <c r="BA3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="41" t="s">
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="41"/>
-      <c r="BG3" s="41"/>
+      <c r="BE3" s="22"/>
+      <c r="BF3" s="22"/>
+      <c r="BG3" s="22"/>
     </row>
-    <row r="4" spans="1:60" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1213,16 +1196,13 @@
         <v>39</v>
       </c>
       <c r="BF4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="BG4" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="BH4" s="21" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="5" spans="1:60" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -1245,7 +1225,7 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1330,11 +1310,11 @@
       <c r="AL5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM5" s="26" t="s">
+      <c r="AM5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="28"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="26"/>
       <c r="AP5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1374,15 +1354,15 @@
       <c r="BB5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="BC5" s="40" t="s">
+      <c r="BC5" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="BD5" s="40"/>
-      <c r="BE5" s="40"/>
-      <c r="BF5" s="40"/>
-      <c r="BG5" s="40"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="43"/>
+      <c r="BG5" s="44"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1410,7 +1390,7 @@
       <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="31"/>
       <c r="K6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1495,9 +1475,9 @@
       <c r="AL6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="31"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="36"/>
       <c r="AP6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1528,13 +1508,13 @@
       <c r="AY6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AZ6" s="37" t="s">
+      <c r="AZ6" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BA6" s="38"/>
-      <c r="BB6" s="39"/>
+      <c r="BA6" s="43"/>
+      <c r="BB6" s="44"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -1557,7 +1537,7 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1637,9 +1617,9 @@
       <c r="AL7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="34"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="39"/>
       <c r="AP7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1661,17 +1641,17 @@
       <c r="AV7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AW7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY7" s="22" t="s">
+      <c r="AW7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY7" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1696,28 +1676,28 @@
       <c r="AB8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="35" t="s">
+      <c r="AR8" s="40" t="s">
         <v>28</v>
       </c>
       <c r="AW8" s="19"/>
       <c r="AX8" s="14"/>
       <c r="AY8" s="14"/>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="AR9" s="36"/>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AR9" s="41"/>
       <c r="AW9" s="17"/>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="AR10" s="36"/>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AR10" s="41"/>
       <c r="AW10" s="7"/>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="BA11" s="13"/>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="BA12" s="13"/>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="AZ13" s="13"/>
       <c r="BB13" s="13"/>
       <c r="BC13" s="13"/>
@@ -1811,6 +1791,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AM5:AO7"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AZ6:BB6"/>
+    <mergeCell ref="BC5:BG5"/>
     <mergeCell ref="BD3:BG3"/>
     <mergeCell ref="C2:BB2"/>
     <mergeCell ref="C3:E3"/>
@@ -1826,11 +1811,6 @@
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="AW3:AZ3"/>
     <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AM5:AO7"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AZ6:BB6"/>
-    <mergeCell ref="BC5:BG5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
